--- a/TestData/EmployeeList.xlsx
+++ b/TestData/EmployeeList.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
